--- a/controller/responses.xlsx
+++ b/controller/responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Partner_Client</t>
   </si>
@@ -103,12 +103,15 @@
     <t>Process_Review_Remarks</t>
   </si>
   <si>
-    <t>6513f5547f921260167c5e6f</t>
+    <t>6513f55f7f921260167c5e71</t>
   </si>
   <si>
     <t>Aveanna</t>
   </si>
   <si>
+    <t>2222222</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -151,7 +154,7 @@
     <t>Success</t>
   </si>
   <si>
-    <t>RN</t>
+    <t>6516c7417d9ef027d79ef81e</t>
   </si>
   <si>
     <t>Nothing</t>
@@ -173,6 +176,45 @@
   </si>
   <si>
     <t>Reviewer 2</t>
+  </si>
+  <si>
+    <t>Bayard</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -549,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -655,85 +697,269 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
